--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF21439B-9C6F-4C9C-B14C-FC022071C87E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="4" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="0" calcMode="manual"/>
+  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -48,9 +49,6 @@
     <t>CustEntType</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -60,40 +58,56 @@
     <t>Chat</t>
   </si>
   <si>
-    <t>1313101</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Skill</t>
   </si>
   <si>
     <t>Channel</t>
   </si>
   <si>
-    <t>SkillTimeOut</t>
-  </si>
-  <si>
-    <t>SLA</t>
-  </si>
-  <si>
-    <t>ChatSkill1</t>
-  </si>
-  <si>
-    <t>ChatSkill2</t>
-  </si>
-  <si>
-    <t>Modified Intent Skill Mapping Record</t>
+    <t>ChatSkill11</t>
+  </si>
+  <si>
+    <t>Updated SubSegment</t>
+  </si>
+  <si>
+    <t>Updated Segment</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT [ChatVDN] as Skill
+   ,[Intent]
+   ,[Language]
+   ,[Segment] 
+      ,[SubSegment] as 'Sub Segment'
+      ,[RequestType] as Channel
+      ,[CustEntType] as 'Cust Ent Type'
+  FROM [Product_OCM].[dbo].[SOI_IntentMapping]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,12 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -231,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -408,22 +425,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
@@ -432,9 +450,9 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -449,46 +467,36 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -497,26 +505,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20245806-E546-4869-B302-09B014BE6CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -531,50 +539,50 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -584,34 +592,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:M21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
       ,[SubSegment] as 'Sub Segment'
       ,[RequestType] as Channel
       ,[CustEntType] as 'Cust Ent Type'
-  FROM [Product_OCM].[dbo].[SOI_IntentMapping]</t>
+  FROM [SOI_IntentMapping]</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,12 +508,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -669,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6795"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A1:M21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -102,6 +101,15 @@
       ,[RequestType] as Channel
       ,[CustEntType] as 'Cust Ent Type'
   FROM [SOI_IntentMapping]</t>
+  </si>
+  <si>
+    <t>bal</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -425,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +458,7 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -473,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -497,6 +505,21 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -555,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -608,7 +631,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -634,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
+  <oleSize ref="A1:M20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -433,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A1:M20"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -153,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -161,6 +160,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +623,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +682,7 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="1"/>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -446,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -622,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit" sheetId="4" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="5" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="6" r:id="rId2"/>
+    <sheet name="Edit" sheetId="4" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -74,18 +74,6 @@
   </si>
   <si>
     <t>Loans</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
   </si>
   <si>
     <t>Modified</t>
@@ -111,6 +99,18 @@
   </si>
   <si>
     <t>balance</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>NNZ</t>
+  </si>
+  <si>
+    <t>HNZ</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,10 +496,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -512,17 +512,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -533,10 +533,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +660,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -605,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -619,12 +686,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -693,7 +760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -708,12 +775,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>CustEntType</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -101,16 +98,19 @@
     <t>balance</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>NNZ</t>
-  </si>
-  <si>
-    <t>HNZ</t>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>XNX</t>
+  </si>
+  <si>
+    <t>XNA</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -487,42 +487,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -567,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -575,22 +575,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -634,16 +634,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -651,25 +651,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>25</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -730,13 +730,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -745,10 +745,10 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1</v>
@@ -775,12 +775,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14385" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -50,9 +51,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Chat</t>
   </si>
   <si>
     <t>Skill</t>
@@ -111,6 +109,18 @@
   </si>
   <si>
     <t>XNA</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>textchat</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
 </sst>
 </file>
@@ -437,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,7 +458,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +474,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -479,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -487,42 +497,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +546,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -567,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -575,22 +585,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +613,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +629,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -634,16 +644,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -651,34 +661,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +701,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +714,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -719,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -730,25 +740,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1</v>
@@ -775,12 +785,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentSkillMappingData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88868659-BBC3-4E21-86AA-EF7343343F44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14385" windowHeight="6615" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -59,22 +59,61 @@
     <t>Channel</t>
   </si>
   <si>
+    <t>Updated SubSegment</t>
+  </si>
+  <si>
+    <t>Updated Segment</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>bal</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
     <t>ChatSkill11</t>
-  </si>
-  <si>
-    <t>Updated SubSegment</t>
-  </si>
-  <si>
-    <t>Updated Segment</t>
-  </si>
-  <si>
-    <t>Loans</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>Query</t>
   </si>
   <si>
     <t>SELECT [ChatVDN] as Skill
@@ -84,49 +123,13 @@
       ,[SubSegment] as 'Sub Segment'
       ,[RequestType] as Channel
       ,[CustEntType] as 'Cust Ent Type'
-  FROM [SOI_IntentMapping]</t>
-  </si>
-  <si>
-    <t>bal</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>XNX</t>
-  </si>
-  <si>
-    <t>XNA</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>textchat</t>
-  </si>
-  <si>
-    <t>fund</t>
+  FROM dbo.[SOI_IntentMapping]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,32 +450,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -495,44 +498,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -542,25 +545,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -583,24 +586,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -609,25 +612,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -650,45 +653,45 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -697,22 +700,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -738,27 +741,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1</v>
@@ -771,26 +774,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
